--- a/PWBE/aula09/docs/Lista de Erros.xlsx
+++ b/PWBE/aula09/docs/Lista de Erros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\João Pedro Angeloni Alvarenga\SENAI2023\PWBE\aula09\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70FD068-E6CE-4CE8-BA74-3BAEB0EBE08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83A5CFE-4223-4641-B411-C414C95C3D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EE644B8-39A1-4D2D-A3A8-B35FC1537D7C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>Nome do arquivo</t>
   </si>
@@ -283,6 +283,48 @@
       </rPr>
       <t xml:space="preserve"> = router;</t>
     </r>
+  </si>
+  <si>
+    <t>requisitando por query ao invés de body</t>
+  </si>
+  <si>
+    <t>req.body</t>
+  </si>
+  <si>
+    <t>database petshop</t>
+  </si>
+  <si>
+    <t>database clinica</t>
+  </si>
+  <si>
+    <t>módulo exportar sem requisição</t>
+  </si>
+  <si>
+    <t>const { id } = req.params;</t>
+  </si>
+  <si>
+    <t>requisição errada</t>
+  </si>
+  <si>
+    <t>const { data } = req.body;</t>
+  </si>
+  <si>
+    <t>tudo zuado</t>
+  </si>
+  <si>
+    <t>refazer</t>
+  </si>
+  <si>
+    <t>controllers</t>
+  </si>
+  <si>
+    <t>cadastrar</t>
+  </si>
+  <si>
+    <t>SELECT declarado errado</t>
+  </si>
+  <si>
+    <t>m.nome troacdo para n.nome</t>
   </si>
 </sst>
 </file>
@@ -338,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -361,11 +403,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0523F9CA-4CE0-4E50-8A61-19735A4A8162}">
   <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +741,7 @@
     <col min="5" max="5" width="95.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -710,7 +755,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -724,7 +770,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -738,7 +785,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -752,7 +800,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -766,7 +815,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -780,7 +830,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -794,7 +845,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
@@ -808,7 +860,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
@@ -822,7 +875,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -836,7 +890,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
@@ -850,7 +905,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
@@ -864,7 +920,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
@@ -878,7 +935,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
@@ -892,7 +950,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
@@ -906,7 +965,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
@@ -920,7 +980,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
@@ -934,7 +995,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
@@ -948,7 +1010,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
       <c r="B20" s="6" t="s">
         <v>32</v>
       </c>
@@ -962,7 +1025,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
       <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
@@ -976,7 +1040,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
       <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
@@ -990,7 +1055,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
       <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
@@ -1004,7 +1070,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
@@ -1018,7 +1085,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
       <c r="B25" s="6" t="s">
         <v>32</v>
       </c>
@@ -1032,7 +1100,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
       <c r="B26" s="6" t="s">
         <v>42</v>
       </c>
@@ -1046,7 +1115,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
       <c r="B27" s="6" t="s">
         <v>42</v>
       </c>
@@ -1060,7 +1130,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
       <c r="B28" s="6" t="s">
         <v>42</v>
       </c>
@@ -1074,7 +1145,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
       <c r="B29" s="6" t="s">
         <v>42</v>
       </c>
@@ -1088,7 +1160,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
       <c r="B30" s="6" t="s">
         <v>42</v>
       </c>
@@ -1102,7 +1175,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
       <c r="B31" s="6" t="s">
         <v>42</v>
       </c>
@@ -1116,7 +1190,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
       <c r="B32" s="6" t="s">
         <v>42</v>
       </c>
@@ -1131,6 +1206,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
       <c r="B33" s="6" t="s">
         <v>42</v>
       </c>
@@ -1145,6 +1221,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
       <c r="B34" s="6" t="s">
         <v>54</v>
       </c>
@@ -1159,6 +1236,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
       <c r="B35" s="6" t="s">
         <v>57</v>
       </c>
@@ -1173,6 +1251,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
       <c r="B36" s="6" t="s">
         <v>60</v>
       </c>
@@ -1187,6 +1266,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
       <c r="B37" s="6" t="s">
         <v>60</v>
       </c>
@@ -1201,6 +1281,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
       <c r="B38" s="6" t="s">
         <v>64</v>
       </c>
@@ -1215,7 +1296,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
         <v>64</v>
       </c>
@@ -1230,7 +1311,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
         <v>66</v>
       </c>
@@ -1245,6 +1326,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
       <c r="B41" s="6" t="s">
         <v>66</v>
       </c>
@@ -1259,6 +1341,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
       <c r="B42" s="6" t="s">
         <v>66</v>
       </c>
@@ -1268,11 +1351,12 @@
       <c r="D42" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
       <c r="B43" s="6" t="s">
         <v>70</v>
       </c>
@@ -1287,40 +1371,94 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="6">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="6">
+        <v>6</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6">
+        <v>46</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6">
+        <v>30</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="2:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="6">
+        <v>18</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
